--- a/READ/READttl.xlsx
+++ b/READ/READttl.xlsx
@@ -528,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>

--- a/READ/READttl.xlsx
+++ b/READ/READttl.xlsx
@@ -528,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>

--- a/READ/READttl.xlsx
+++ b/READ/READttl.xlsx
@@ -509,13 +509,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -528,13 +528,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
       </c>
       <c r="E5" t="n">
-        <v>238</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6">
@@ -544,16 +544,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>145</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/READ/READttl.xlsx
+++ b/READ/READttl.xlsx
@@ -528,7 +528,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
@@ -547,7 +547,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D6" t="n">
         <v>6</v>
